--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H2">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J2">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N2">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q2">
-        <v>2.611962678532222</v>
+        <v>0.9359678540764444</v>
       </c>
       <c r="R2">
-        <v>23.50766410679</v>
+        <v>8.423710686688</v>
       </c>
       <c r="S2">
-        <v>0.01340265113854504</v>
+        <v>0.005246873210859733</v>
       </c>
       <c r="T2">
-        <v>0.01340265113854504</v>
+        <v>0.005246873210859732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H3">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J3">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q3">
-        <v>18.72345221270989</v>
+        <v>13.61275518619378</v>
       </c>
       <c r="R3">
-        <v>168.511069914389</v>
+        <v>122.514796675744</v>
       </c>
       <c r="S3">
-        <v>0.09607484064710541</v>
+        <v>0.0763107410167513</v>
       </c>
       <c r="T3">
-        <v>0.09607484064710541</v>
+        <v>0.0763107410167513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5498363333333334</v>
+        <v>0.3997546666666666</v>
       </c>
       <c r="H4">
-        <v>1.649509</v>
+        <v>1.199264</v>
       </c>
       <c r="I4">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="J4">
-        <v>0.1730423789436426</v>
+        <v>0.1320462084214824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q4">
-        <v>12.38778143260778</v>
+        <v>9.006449987235555</v>
       </c>
       <c r="R4">
-        <v>111.49003289347</v>
+        <v>81.05804988512</v>
       </c>
       <c r="S4">
-        <v>0.06356488715799219</v>
+        <v>0.05048859419387137</v>
       </c>
       <c r="T4">
-        <v>0.06356488715799219</v>
+        <v>0.05048859419387137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.213034</v>
       </c>
       <c r="I5">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J5">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N5">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O5">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P5">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q5">
-        <v>9.838208174948889</v>
+        <v>4.848974121030889</v>
       </c>
       <c r="R5">
-        <v>88.54387357454</v>
+        <v>43.64076708927801</v>
       </c>
       <c r="S5">
-        <v>0.05048237215675636</v>
+        <v>0.02718250664804471</v>
       </c>
       <c r="T5">
-        <v>0.05048237215675637</v>
+        <v>0.02718250664804471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.213034</v>
       </c>
       <c r="I6">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J6">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q6">
-        <v>70.52368019510158</v>
+        <v>70.52368019510156</v>
       </c>
       <c r="R6">
-        <v>634.7131217559141</v>
+        <v>634.713121755914</v>
       </c>
       <c r="S6">
-        <v>0.3618751104025791</v>
+        <v>0.3953435010992328</v>
       </c>
       <c r="T6">
-        <v>0.3618751104025791</v>
+        <v>0.3953435010992329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.213034</v>
       </c>
       <c r="I7">
-        <v>0.6517807322165176</v>
+        <v>0.6840925621829359</v>
       </c>
       <c r="J7">
-        <v>0.6517807322165177</v>
+        <v>0.684092562182936</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q7">
         <v>46.65976798269111</v>
@@ -880,10 +880,10 @@
         <v>419.9379118442201</v>
       </c>
       <c r="S7">
-        <v>0.2394232496571821</v>
+        <v>0.2615665544356583</v>
       </c>
       <c r="T7">
-        <v>0.2394232496571822</v>
+        <v>0.2615665544356584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H8">
         <v>1.669856</v>
       </c>
       <c r="I8">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J8">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N8">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O8">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P8">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q8">
-        <v>2.644181723484444</v>
+        <v>1.303242269372445</v>
       </c>
       <c r="R8">
-        <v>23.79763551136</v>
+        <v>11.729180424352</v>
       </c>
       <c r="S8">
-        <v>0.01356797533060217</v>
+        <v>0.00730574978686377</v>
       </c>
       <c r="T8">
-        <v>0.01356797533060217</v>
+        <v>0.007305749786863768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H9">
         <v>1.669856</v>
       </c>
       <c r="I9">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J9">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>102.158321</v>
       </c>
       <c r="O9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q9">
         <v>18.95440947464178</v>
@@ -1004,10 +1004,10 @@
         <v>170.589685271776</v>
       </c>
       <c r="S9">
-        <v>0.09725994165755557</v>
+        <v>0.106255127104014</v>
       </c>
       <c r="T9">
-        <v>0.09725994165755557</v>
+        <v>0.106255127104014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5566186666666666</v>
+        <v>0.5566186666666667</v>
       </c>
       <c r="H10">
         <v>1.669856</v>
       </c>
       <c r="I10">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="J10">
-        <v>0.1751768888398398</v>
+        <v>0.1838612293955817</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q10">
         <v>12.54058701827556</v>
@@ -1066,10 +1066,10 @@
         <v>112.86528316448</v>
       </c>
       <c r="S10">
-        <v>0.06434897185168205</v>
+        <v>0.07030035250470396</v>
       </c>
       <c r="T10">
-        <v>0.06434897185168205</v>
+        <v>0.07030035250470394</v>
       </c>
     </row>
   </sheetData>
